--- a/Dictionnary_final_anglais.xlsx
+++ b/Dictionnary_final_anglais.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miche\Documents\INSERM-UPEC\Papers_KDOG_2024\P3_article_final\plos_one_submission\P3_revision_plos_one\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C431F003-3A8D-48F0-8C9D-CE49A130DAD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5085CBD4-BD71-411E-84F8-7C45FCBEB778}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{55B59875-23B5-4644-8D23-F96DF6F8FDBB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{55B59875-23B5-4644-8D23-F96DF6F8FDBB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="81">
   <si>
     <t>Variable</t>
   </si>
@@ -688,6 +688,18 @@
   </si>
   <si>
     <t>New negative samples introduced, observed per cone. Note that these new samples are only introduced for designated lines. They are not used in the lines preceding or following them.</t>
+  </si>
+  <si>
+    <t>RR1</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>Instantaneous sheltered temperature (in °C)</t>
+  </si>
+  <si>
+    <t>Precipitation amount over 1 hour (in mm)</t>
   </si>
 </sst>
 </file>
@@ -770,7 +782,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -790,14 +802,32 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1113,18 +1143,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C88041E-5C2A-4312-97F0-524B5930F505}">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D14" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.85546875" style="9" customWidth="1"/>
-    <col min="2" max="2" width="35.7109375" style="9" customWidth="1"/>
-    <col min="3" max="3" width="83.28515625" style="9" customWidth="1"/>
-    <col min="4" max="4" width="163.5703125" style="9" customWidth="1"/>
+    <col min="1" max="1" width="26.85546875" style="7" customWidth="1"/>
+    <col min="2" max="2" width="35.7109375" style="7" customWidth="1"/>
+    <col min="3" max="3" width="83.28515625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="163.5703125" style="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -1137,7 +1167,7 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1151,7 +1181,7 @@
       <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="11" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1165,7 +1195,7 @@
       <c r="C3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="11" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1179,7 +1209,7 @@
       <c r="C4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="11" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1193,7 +1223,7 @@
       <c r="C5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="11" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1207,7 +1237,7 @@
       <c r="C6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="11" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1221,7 +1251,7 @@
       <c r="C7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="11" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1235,7 +1265,7 @@
       <c r="C8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="11" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1249,7 +1279,7 @@
       <c r="C9" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="11" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1263,7 +1293,7 @@
       <c r="C10" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="11" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1277,7 +1307,7 @@
       <c r="C11" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="11" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1291,7 +1321,7 @@
       <c r="C12" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="11" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1305,7 +1335,7 @@
       <c r="C13" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="11" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1319,7 +1349,7 @@
       <c r="C14" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="11" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1333,7 +1363,7 @@
       <c r="C15" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="11" t="s">
         <v>74</v>
       </c>
     </row>
@@ -1347,7 +1377,7 @@
       <c r="C16" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="11" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1361,7 +1391,7 @@
       <c r="C17" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="11" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1375,7 +1405,7 @@
       <c r="C18" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="12" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1389,7 +1419,7 @@
       <c r="C19" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="12" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1403,7 +1433,7 @@
       <c r="C20" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="13" t="s">
         <v>68</v>
       </c>
     </row>
@@ -1417,7 +1447,7 @@
       <c r="C21" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="12" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1431,7 +1461,7 @@
       <c r="C22" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="12" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1445,7 +1475,7 @@
       <c r="C23" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" s="11" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1459,7 +1489,7 @@
       <c r="C24" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" s="11" t="s">
         <v>72</v>
       </c>
     </row>
@@ -1473,7 +1503,7 @@
       <c r="C25" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" s="11" t="s">
         <v>75</v>
       </c>
     </row>
@@ -1487,8 +1517,32 @@
       <c r="C26" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" s="11" t="s">
         <v>76</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="8"/>
+      <c r="D27" s="14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" s="8"/>
+      <c r="D28" s="9" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
